--- a/target/test-classes/testdata/HrmsTestData.xlsx
+++ b/target/test-classes/testdata/HrmsTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irwinferrufino/eclipse-workspace/JavaBasics/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irwinferrufino/eclipse-workspace/CucumberFramework/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A939FBC-6631-B444-98C9-DF0DA030E324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{805B91F5-5834-2F46-80AB-E44028A9DA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{A62C7098-8D50-C042-962F-6C9C6560FCA5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Firstname</t>
   </si>
@@ -47,52 +47,49 @@
     <t>John</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>Usrname</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>JohnSmith</t>
-  </si>
-  <si>
-    <t>John123</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Doe</t>
   </si>
   <si>
     <t>Blake</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Ryan</t>
   </si>
   <si>
-    <t>JaneDoe</t>
-  </si>
-  <si>
-    <t>Jane498</t>
-  </si>
-  <si>
-    <t>BlakeRyan</t>
-  </si>
-  <si>
-    <t>Blake234</t>
+    <t>Dwyane</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>LeBron</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
   </si>
 </sst>
 </file>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD616C-ECB8-BB4D-989C-E3991ED1E873}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A5:E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +452,7 @@
     <col min="2" max="2" width="12.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,61 +463,77 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>9024375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3927487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4">
+        <v>2384280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3092389</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+      <c r="D6">
+        <v>9823748</v>
       </c>
     </row>
   </sheetData>
